--- a/Code/Results/Cases/Case_1_119/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_119/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.789368396267907</v>
+        <v>5.896476547055094</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.003507308558596</v>
+        <v>4.322891434097585</v>
       </c>
       <c r="E2">
-        <v>30.0218796973111</v>
+        <v>16.50001308497689</v>
       </c>
       <c r="F2">
-        <v>24.54506951939463</v>
+        <v>25.14293919829933</v>
       </c>
       <c r="G2">
-        <v>35.04392586396082</v>
+        <v>31.01252376501491</v>
       </c>
       <c r="H2">
-        <v>10.38371219700578</v>
+        <v>14.25255102788124</v>
       </c>
       <c r="I2">
-        <v>12.58787970188967</v>
+        <v>19.30882781077258</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.36068874729137</v>
+        <v>11.95290194740078</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.420945238828823</v>
+        <v>5.785638564604787</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.059795522142788</v>
+        <v>4.333149428401794</v>
       </c>
       <c r="E3">
-        <v>27.79138037309519</v>
+        <v>15.56125721325922</v>
       </c>
       <c r="F3">
-        <v>23.38735647624908</v>
+        <v>24.98891542917677</v>
       </c>
       <c r="G3">
-        <v>33.12183528281991</v>
+        <v>30.64890075880527</v>
       </c>
       <c r="H3">
-        <v>10.17763281068694</v>
+        <v>14.27466603116684</v>
       </c>
       <c r="I3">
-        <v>12.97212933110192</v>
+        <v>19.43182168715426</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.06459106800183</v>
+        <v>11.41519057254376</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.182908510746</v>
+        <v>5.717245135427095</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.094653581364967</v>
+        <v>4.339743961878594</v>
       </c>
       <c r="E4">
-        <v>26.36280001371734</v>
+        <v>14.9603928210345</v>
       </c>
       <c r="F4">
-        <v>22.68487390267477</v>
+        <v>24.90399771483853</v>
       </c>
       <c r="G4">
-        <v>31.94683308101264</v>
+        <v>30.43891790759098</v>
       </c>
       <c r="H4">
-        <v>10.06301137762965</v>
+        <v>14.29224360263695</v>
       </c>
       <c r="I4">
-        <v>13.2150323944089</v>
+        <v>19.51121530729685</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.22916348751956</v>
+        <v>11.07551643021965</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.082970762442303</v>
+        <v>5.689325584832277</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.108941807435536</v>
+        <v>4.342506160678126</v>
       </c>
       <c r="E5">
-        <v>25.76531930541252</v>
+        <v>14.70965405265451</v>
       </c>
       <c r="F5">
-        <v>22.40096742707621</v>
+        <v>24.87184543258717</v>
       </c>
       <c r="G5">
-        <v>31.46974515481189</v>
+        <v>30.35678982236842</v>
       </c>
       <c r="H5">
-        <v>10.01919531568175</v>
+        <v>14.30040715734994</v>
       </c>
       <c r="I5">
-        <v>13.31577237349958</v>
+        <v>19.54454490333466</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.8786950807037</v>
+        <v>10.93450628504019</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.06620015202302</v>
+        <v>5.684687706963098</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.111319653137972</v>
+        <v>4.342969356395846</v>
       </c>
       <c r="E6">
-        <v>25.66516949409633</v>
+        <v>14.66767277918694</v>
       </c>
       <c r="F6">
-        <v>22.35397610672121</v>
+        <v>24.86665531551374</v>
       </c>
       <c r="G6">
-        <v>31.39064483605394</v>
+        <v>30.34336314585488</v>
       </c>
       <c r="H6">
-        <v>10.01209133862667</v>
+        <v>14.30182298623162</v>
       </c>
       <c r="I6">
-        <v>13.33260632394424</v>
+        <v>19.55013825847644</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.81989330478716</v>
+        <v>10.9109416005214</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.181572545682386</v>
+        <v>5.716868750872302</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.094845928197824</v>
+        <v>4.339780910180802</v>
       </c>
       <c r="E7">
-        <v>26.35480482058502</v>
+        <v>14.9570346886598</v>
       </c>
       <c r="F7">
-        <v>22.68103510183308</v>
+        <v>24.9035541394155</v>
       </c>
       <c r="G7">
-        <v>31.94039122028676</v>
+        <v>30.43779623824654</v>
       </c>
       <c r="H7">
-        <v>10.06240888360184</v>
+        <v>14.29234965500886</v>
       </c>
       <c r="I7">
-        <v>13.21638389659264</v>
+        <v>19.51166084770138</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.22447760105475</v>
+        <v>11.07362492131407</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.664809277146549</v>
+        <v>5.858351426795625</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.022858802544912</v>
+        <v>4.326367187223335</v>
       </c>
       <c r="E8">
-        <v>29.26475888746215</v>
+        <v>16.18155400818645</v>
       </c>
       <c r="F8">
-        <v>24.14429376069557</v>
+        <v>25.08784472846433</v>
       </c>
       <c r="G8">
-        <v>34.38033906052914</v>
+        <v>30.88445359994888</v>
       </c>
       <c r="H8">
-        <v>10.3101234124465</v>
+        <v>14.25934342976517</v>
       </c>
       <c r="I8">
-        <v>12.71892111980394</v>
+        <v>19.35043287811136</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.92197076694285</v>
+        <v>11.76822923031436</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.517473070861477</v>
+        <v>6.131564099018144</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.883718204058808</v>
+        <v>4.30239388995656</v>
       </c>
       <c r="E9">
-        <v>34.52657946052074</v>
+        <v>18.46864013910899</v>
       </c>
       <c r="F9">
-        <v>27.07193977349197</v>
+        <v>25.52449493645684</v>
       </c>
       <c r="G9">
-        <v>39.19388100599731</v>
+        <v>31.86080577351706</v>
       </c>
       <c r="H9">
-        <v>10.89485272417473</v>
+        <v>14.22655352699934</v>
       </c>
       <c r="I9">
-        <v>11.79901290803475</v>
+        <v>19.06493310733132</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.94068779540268</v>
+        <v>13.27519436624748</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.085066167279873</v>
+        <v>6.327726517267261</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.782420079015866</v>
+        <v>4.286177331006751</v>
       </c>
       <c r="E10">
-        <v>38.15928885240263</v>
+        <v>20.11932269656972</v>
       </c>
       <c r="F10">
-        <v>29.25319694350789</v>
+        <v>25.88905656527285</v>
       </c>
       <c r="G10">
-        <v>42.75399550754177</v>
+        <v>32.63219580359812</v>
       </c>
       <c r="H10">
-        <v>11.3910108908855</v>
+        <v>14.22218667481072</v>
       </c>
       <c r="I10">
-        <v>11.15831214000846</v>
+        <v>18.87376245808892</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.9775430394</v>
+        <v>14.29845547617277</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.330424682045431</v>
+        <v>6.415583513738482</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.736541160873453</v>
+        <v>4.279098380865274</v>
       </c>
       <c r="E11">
-        <v>39.77131931891565</v>
+        <v>20.82837373078346</v>
       </c>
       <c r="F11">
-        <v>30.25699421170235</v>
+        <v>26.06386338140962</v>
       </c>
       <c r="G11">
-        <v>44.43584078396064</v>
+        <v>32.99321292603224</v>
       </c>
       <c r="H11">
-        <v>11.63265921712025</v>
+        <v>14.22452795080088</v>
       </c>
       <c r="I11">
-        <v>10.87511307135463</v>
+        <v>18.79080715016488</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.86721262588351</v>
+        <v>14.73873763053355</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.421488762097946</v>
+        <v>6.44862416940033</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.719205065704247</v>
+        <v>4.276460271147108</v>
       </c>
       <c r="E12">
-        <v>40.37692676043385</v>
+        <v>21.09089311486526</v>
       </c>
       <c r="F12">
-        <v>30.68716474638384</v>
+        <v>26.13129632593397</v>
       </c>
       <c r="G12">
-        <v>45.07266793940196</v>
+        <v>33.13123149190105</v>
       </c>
       <c r="H12">
-        <v>11.72659920595809</v>
+        <v>14.22603969749142</v>
       </c>
       <c r="I12">
-        <v>10.76915213253295</v>
+        <v>18.75996913709966</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.19903930885796</v>
+        <v>14.90182725581117</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.40195864099271</v>
+        <v>6.441518921937131</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.722936829470684</v>
+        <v>4.277026548460197</v>
       </c>
       <c r="E13">
-        <v>40.24669576499829</v>
+        <v>21.03462039395894</v>
       </c>
       <c r="F13">
-        <v>30.59456821902358</v>
+        <v>26.11671926067938</v>
       </c>
       <c r="G13">
-        <v>44.93550856819334</v>
+        <v>33.10145080838195</v>
       </c>
       <c r="H13">
-        <v>11.70625685194278</v>
+        <v>14.22568627236673</v>
       </c>
       <c r="I13">
-        <v>10.79191388274454</v>
+        <v>18.76658508326643</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.1277958837001</v>
+        <v>14.86686481022838</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.337953604263896</v>
+        <v>6.418306544827898</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.735114087664926</v>
+        <v>4.278880491315808</v>
       </c>
       <c r="E14">
-        <v>39.82123361089727</v>
+        <v>20.85009106101861</v>
       </c>
       <c r="F14">
-        <v>30.29240698639461</v>
+        <v>26.06938663946466</v>
       </c>
       <c r="G14">
-        <v>44.48823059463058</v>
+        <v>33.00454238936344</v>
       </c>
       <c r="H14">
-        <v>11.64033806823505</v>
+        <v>14.22463977973413</v>
       </c>
       <c r="I14">
-        <v>10.86636927331794</v>
+        <v>18.78825856354478</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.89461236190194</v>
+        <v>14.75222802295567</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.298508062956609</v>
+        <v>6.404057606563406</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.742578240086716</v>
+        <v>4.280021614873063</v>
       </c>
       <c r="E15">
-        <v>39.56002850941004</v>
+        <v>20.73628342317213</v>
       </c>
       <c r="F15">
-        <v>30.12084624331835</v>
+        <v>26.04055359382106</v>
       </c>
       <c r="G15">
-        <v>44.21427042360877</v>
+        <v>32.945349375663</v>
       </c>
       <c r="H15">
-        <v>11.60028231833139</v>
+        <v>14.22408026148387</v>
       </c>
       <c r="I15">
-        <v>10.91214548982282</v>
+        <v>18.80160909196525</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.75112788768584</v>
+        <v>14.68153596161366</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.068772793310618</v>
+        <v>6.321954457026194</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.785422969356483</v>
+        <v>4.286645926402411</v>
       </c>
       <c r="E16">
-        <v>38.05320489178047</v>
+        <v>20.07214540044766</v>
       </c>
       <c r="F16">
-        <v>29.18803065589163</v>
+        <v>25.87780858385299</v>
       </c>
       <c r="G16">
-        <v>42.64404605964933</v>
+        <v>32.60879358687357</v>
       </c>
       <c r="H16">
-        <v>11.37555092652138</v>
+        <v>14.22212100652048</v>
       </c>
       <c r="I16">
-        <v>11.17699316609734</v>
+        <v>18.87926435741556</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.91867758958936</v>
+        <v>14.26917373722734</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.924546197404406</v>
+        <v>6.271211419949322</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.811762123620685</v>
+        <v>4.290785827383699</v>
       </c>
       <c r="E17">
-        <v>37.11909906375082</v>
+        <v>19.65402407819721</v>
       </c>
       <c r="F17">
-        <v>28.61776543987276</v>
+        <v>25.78023029944798</v>
       </c>
       <c r="G17">
-        <v>41.71124557190844</v>
+        <v>32.40481431844704</v>
       </c>
       <c r="H17">
-        <v>11.24186221808639</v>
+        <v>14.22202969236724</v>
       </c>
       <c r="I17">
-        <v>11.34163895191061</v>
+        <v>18.92792935332456</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.39869870623966</v>
+        <v>14.0097376524422</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.840381855286747</v>
+        <v>6.241897360532192</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.826929866261598</v>
+        <v>4.293195060444285</v>
       </c>
       <c r="E18">
-        <v>36.57794551068164</v>
+        <v>19.40959026216542</v>
       </c>
       <c r="F18">
-        <v>28.29043923364282</v>
+        <v>25.72495309232769</v>
       </c>
       <c r="G18">
-        <v>41.17923980500743</v>
+        <v>32.28845104028186</v>
       </c>
       <c r="H18">
-        <v>11.16645921481167</v>
+        <v>14.22238438586011</v>
       </c>
       <c r="I18">
-        <v>11.43710881237161</v>
+        <v>18.95629759986746</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.09613049520609</v>
+        <v>13.8581448166723</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.811677710641717</v>
+        <v>6.231951103047054</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.832068392133635</v>
+        <v>4.294015616795392</v>
       </c>
       <c r="E19">
-        <v>36.39402605634834</v>
+        <v>19.32615113234434</v>
       </c>
       <c r="F19">
-        <v>28.17972420784534</v>
+        <v>25.70638422170957</v>
       </c>
       <c r="G19">
-        <v>40.99917632629213</v>
+        <v>32.24922171669128</v>
       </c>
       <c r="H19">
-        <v>11.14118124146249</v>
+        <v>14.22257432376046</v>
       </c>
       <c r="I19">
-        <v>11.46956325528864</v>
+        <v>18.96596746047731</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.99308014483742</v>
+        <v>13.80641111513247</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.940024515359909</v>
+        <v>6.27662657909217</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.808956361201525</v>
+        <v>4.290342225037677</v>
       </c>
       <c r="E20">
-        <v>37.21893117457613</v>
+        <v>19.698941477071</v>
       </c>
       <c r="F20">
-        <v>28.67840023806479</v>
+        <v>25.7905303541514</v>
       </c>
       <c r="G20">
-        <v>41.80974063757918</v>
+        <v>32.42642992302969</v>
       </c>
       <c r="H20">
-        <v>11.25593832882815</v>
+        <v>14.22199724577401</v>
       </c>
       <c r="I20">
-        <v>11.32403188206358</v>
+        <v>18.92270982778834</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.454410982423</v>
+        <v>14.03760066410544</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.356803573800931</v>
+        <v>6.425131030025209</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.731536215411484</v>
+        <v>4.278334791453125</v>
       </c>
       <c r="E21">
-        <v>39.94632461685151</v>
+        <v>20.90445388998346</v>
       </c>
       <c r="F21">
-        <v>30.38118929936944</v>
+        <v>26.08325622419185</v>
       </c>
       <c r="G21">
-        <v>44.61960367776503</v>
+        <v>33.03297236627063</v>
       </c>
       <c r="H21">
-        <v>11.65963274710843</v>
+        <v>14.22493017350184</v>
       </c>
       <c r="I21">
-        <v>10.84446424254735</v>
+        <v>18.78187693072913</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.963239586375</v>
+        <v>14.78599836195596</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.618424340452586</v>
+        <v>6.520840228364817</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.681165020131427</v>
+        <v>4.270735029210885</v>
       </c>
       <c r="E22">
-        <v>41.70124718444816</v>
+        <v>21.65746963708246</v>
       </c>
       <c r="F22">
-        <v>31.63138060983558</v>
+        <v>26.28175581193567</v>
       </c>
       <c r="G22">
-        <v>46.47370590661579</v>
+        <v>33.43694641464811</v>
       </c>
       <c r="H22">
-        <v>11.93773543712254</v>
+        <v>14.23049183776208</v>
       </c>
       <c r="I22">
-        <v>10.53857492888683</v>
+        <v>18.6931876509171</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.91992331718335</v>
+        <v>15.25392623088918</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.479777040545326</v>
+        <v>6.469891349962448</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.708023320956755</v>
+        <v>4.274768594680775</v>
       </c>
       <c r="E23">
-        <v>40.76676357641062</v>
+        <v>21.25874862903668</v>
       </c>
       <c r="F23">
-        <v>30.96463222807301</v>
+        <v>26.17517323063359</v>
       </c>
       <c r="G23">
-        <v>45.48392474025817</v>
+        <v>33.22069376705403</v>
       </c>
       <c r="H23">
-        <v>11.78794868208507</v>
+        <v>14.22718917362664</v>
       </c>
       <c r="I23">
-        <v>10.70110315322877</v>
+        <v>18.7402163383622</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.41192670595947</v>
+        <v>15.00612595888344</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.933030650411429</v>
+        <v>6.274178823148308</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.810224769017244</v>
+        <v>4.290542686800877</v>
       </c>
       <c r="E24">
-        <v>37.17380999387374</v>
+        <v>19.67864694001652</v>
       </c>
       <c r="F24">
-        <v>28.6509856176259</v>
+        <v>25.78587113547612</v>
       </c>
       <c r="G24">
-        <v>41.76521045688678</v>
+        <v>32.41665467159402</v>
       </c>
       <c r="H24">
-        <v>11.24956999304213</v>
+        <v>14.22201064668288</v>
       </c>
       <c r="I24">
-        <v>11.33198951314796</v>
+        <v>18.92506836006318</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.42923477194227</v>
+        <v>14.02501139446602</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.297097534144087</v>
+        <v>6.058316741456117</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.921183519090145</v>
+        <v>4.308632342604367</v>
       </c>
       <c r="E25">
-        <v>33.14709664588053</v>
+        <v>17.82341123475683</v>
       </c>
       <c r="F25">
-        <v>26.27454098890808</v>
+        <v>25.39851427554646</v>
       </c>
       <c r="G25">
-        <v>37.88972735160006</v>
+        <v>31.58663725621944</v>
       </c>
       <c r="H25">
-        <v>10.72544343189678</v>
+        <v>14.2319769844385</v>
       </c>
       <c r="I25">
-        <v>12.04184275086973</v>
+        <v>19.13889673055544</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.15651814644319</v>
+        <v>12.87612731785998</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_119/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_119/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.896476547055094</v>
+        <v>6.789368396267914</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.322891434097585</v>
+        <v>3.003507308558584</v>
       </c>
       <c r="E2">
-        <v>16.50001308497689</v>
+        <v>30.0218796973111</v>
       </c>
       <c r="F2">
-        <v>25.14293919829933</v>
+        <v>24.54506951939463</v>
       </c>
       <c r="G2">
-        <v>31.01252376501491</v>
+        <v>35.04392586396084</v>
       </c>
       <c r="H2">
-        <v>14.25255102788124</v>
+        <v>10.38371219700584</v>
       </c>
       <c r="I2">
-        <v>19.30882781077258</v>
+        <v>12.58787970188968</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.95290194740078</v>
+        <v>20.36068874729138</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.785638564604787</v>
+        <v>6.420945238828899</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.333149428401794</v>
+        <v>3.059795522142793</v>
       </c>
       <c r="E3">
-        <v>15.56125721325922</v>
+        <v>27.79138037309513</v>
       </c>
       <c r="F3">
-        <v>24.98891542917677</v>
+        <v>23.38735647624901</v>
       </c>
       <c r="G3">
-        <v>30.64890075880527</v>
+        <v>33.1218352828198</v>
       </c>
       <c r="H3">
-        <v>14.27466603116684</v>
+        <v>10.17763281068693</v>
       </c>
       <c r="I3">
-        <v>19.43182168715426</v>
+        <v>12.97212933110176</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.41519057254376</v>
+        <v>19.06459106800182</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.717245135427095</v>
+        <v>6.182908510746007</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.339743961878594</v>
+        <v>3.094653581365098</v>
       </c>
       <c r="E4">
-        <v>14.9603928210345</v>
+        <v>26.36280001371743</v>
       </c>
       <c r="F4">
-        <v>24.90399771483853</v>
+        <v>22.68487390267468</v>
       </c>
       <c r="G4">
-        <v>30.43891790759098</v>
+        <v>31.94683308101257</v>
       </c>
       <c r="H4">
-        <v>14.29224360263695</v>
+        <v>10.06301137762957</v>
       </c>
       <c r="I4">
-        <v>19.51121530729685</v>
+        <v>13.2150323944088</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.07551643021965</v>
+        <v>18.22916348751957</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.689325584832277</v>
+        <v>6.08297076244238</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.342506160678126</v>
+        <v>3.108941807435536</v>
       </c>
       <c r="E5">
-        <v>14.70965405265451</v>
+        <v>25.76531930541255</v>
       </c>
       <c r="F5">
-        <v>24.87184543258717</v>
+        <v>22.40096742707616</v>
       </c>
       <c r="G5">
-        <v>30.35678982236842</v>
+        <v>31.46974515481179</v>
       </c>
       <c r="H5">
-        <v>14.30040715734994</v>
+        <v>10.01919531568175</v>
       </c>
       <c r="I5">
-        <v>19.54454490333466</v>
+        <v>13.31577237349949</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.93450628504019</v>
+        <v>17.87869508070373</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.684687706963098</v>
+        <v>6.066200152023026</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.342969356395846</v>
+        <v>3.111319653137967</v>
       </c>
       <c r="E6">
-        <v>14.66767277918694</v>
+        <v>25.66516949409634</v>
       </c>
       <c r="F6">
-        <v>24.86665531551374</v>
+        <v>22.35397610672119</v>
       </c>
       <c r="G6">
-        <v>30.34336314585488</v>
+        <v>31.39064483605389</v>
       </c>
       <c r="H6">
-        <v>14.30182298623162</v>
+        <v>10.01209133862667</v>
       </c>
       <c r="I6">
-        <v>19.55013825847644</v>
+        <v>13.33260632394421</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.9109416005214</v>
+        <v>17.81989330478714</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.716868750872302</v>
+        <v>6.181572545682378</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.339780910180802</v>
+        <v>3.094845928197893</v>
       </c>
       <c r="E7">
-        <v>14.9570346886598</v>
+        <v>26.35480482058498</v>
       </c>
       <c r="F7">
-        <v>24.9035541394155</v>
+        <v>22.68103510183307</v>
       </c>
       <c r="G7">
-        <v>30.43779623824654</v>
+        <v>31.94039122028674</v>
       </c>
       <c r="H7">
-        <v>14.29234965500886</v>
+        <v>10.06240888360179</v>
       </c>
       <c r="I7">
-        <v>19.51166084770138</v>
+        <v>13.21638389659256</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.07362492131407</v>
+        <v>18.22447760105474</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.858351426795625</v>
+        <v>6.664809277146485</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.326367187223335</v>
+        <v>3.0228588025453</v>
       </c>
       <c r="E8">
-        <v>16.18155400818645</v>
+        <v>29.26475888746221</v>
       </c>
       <c r="F8">
-        <v>25.08784472846433</v>
+        <v>24.14429376069549</v>
       </c>
       <c r="G8">
-        <v>30.88445359994888</v>
+        <v>34.38033906052912</v>
       </c>
       <c r="H8">
-        <v>14.25934342976517</v>
+        <v>10.31012341244647</v>
       </c>
       <c r="I8">
-        <v>19.35043287811136</v>
+        <v>12.71892111980399</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.76822923031436</v>
+        <v>19.92197076694286</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.131564099018144</v>
+        <v>7.517473070861463</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.30239388995656</v>
+        <v>2.883718204058996</v>
       </c>
       <c r="E9">
-        <v>18.46864013910899</v>
+        <v>34.52657946052079</v>
       </c>
       <c r="F9">
-        <v>25.52449493645684</v>
+        <v>27.07193977349199</v>
       </c>
       <c r="G9">
-        <v>31.86080577351706</v>
+        <v>39.19388100599743</v>
       </c>
       <c r="H9">
-        <v>14.22655352699934</v>
+        <v>10.89485272417472</v>
       </c>
       <c r="I9">
-        <v>19.06493310733132</v>
+        <v>11.79901290803482</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.27519436624748</v>
+        <v>22.9406877954027</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.327726517267261</v>
+        <v>8.085066167279839</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.286177331006751</v>
+        <v>2.782420079015739</v>
       </c>
       <c r="E10">
-        <v>20.11932269656972</v>
+        <v>38.15928885240248</v>
       </c>
       <c r="F10">
-        <v>25.88905656527285</v>
+        <v>29.25319694350792</v>
       </c>
       <c r="G10">
-        <v>32.63219580359812</v>
+        <v>42.75399550754177</v>
       </c>
       <c r="H10">
-        <v>14.22218667481072</v>
+        <v>11.39101089088552</v>
       </c>
       <c r="I10">
-        <v>18.87376245808892</v>
+        <v>11.15831214000855</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.29845547617277</v>
+        <v>24.97754303939999</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.415583513738482</v>
+        <v>8.330424682045479</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.279098380865274</v>
+        <v>2.736541160873583</v>
       </c>
       <c r="E11">
-        <v>20.82837373078346</v>
+        <v>39.77131931891563</v>
       </c>
       <c r="F11">
-        <v>26.06386338140962</v>
+        <v>30.25699421170241</v>
       </c>
       <c r="G11">
-        <v>32.99321292603224</v>
+        <v>44.43584078396069</v>
       </c>
       <c r="H11">
-        <v>14.22452795080088</v>
+        <v>11.63265921712025</v>
       </c>
       <c r="I11">
-        <v>18.79080715016488</v>
+        <v>10.87511307135454</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.73873763053355</v>
+        <v>25.86721262588357</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.44862416940033</v>
+        <v>8.42148876209791</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.276460271147108</v>
+        <v>2.719205065704301</v>
       </c>
       <c r="E12">
-        <v>21.09089311486526</v>
+        <v>40.37692676043384</v>
       </c>
       <c r="F12">
-        <v>26.13129632593397</v>
+        <v>30.68716474638389</v>
       </c>
       <c r="G12">
-        <v>33.13123149190105</v>
+        <v>45.07266793940203</v>
       </c>
       <c r="H12">
-        <v>14.22603969749142</v>
+        <v>11.72659920595808</v>
       </c>
       <c r="I12">
-        <v>18.75996913709966</v>
+        <v>10.76915213253296</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.90182725581117</v>
+        <v>26.19903930885799</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.441518921937131</v>
+        <v>8.401958640992722</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.277026548460197</v>
+        <v>2.722936829470927</v>
       </c>
       <c r="E13">
-        <v>21.03462039395894</v>
+        <v>40.2466957649983</v>
       </c>
       <c r="F13">
-        <v>26.11671926067938</v>
+        <v>30.5945682190236</v>
       </c>
       <c r="G13">
-        <v>33.10145080838195</v>
+        <v>44.93550856819334</v>
       </c>
       <c r="H13">
-        <v>14.22568627236673</v>
+        <v>11.70625685194278</v>
       </c>
       <c r="I13">
-        <v>18.76658508326643</v>
+        <v>10.79191388274444</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.86686481022838</v>
+        <v>26.12779588370011</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.418306544827898</v>
+        <v>8.337953604263904</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.278880491315808</v>
+        <v>2.735114087664934</v>
       </c>
       <c r="E14">
-        <v>20.85009106101861</v>
+        <v>39.82123361089736</v>
       </c>
       <c r="F14">
-        <v>26.06938663946466</v>
+        <v>30.29240698639464</v>
       </c>
       <c r="G14">
-        <v>33.00454238936344</v>
+        <v>44.48823059463069</v>
       </c>
       <c r="H14">
-        <v>14.22463977973413</v>
+        <v>11.64033806823505</v>
       </c>
       <c r="I14">
-        <v>18.78825856354478</v>
+        <v>10.86636927331787</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.75222802295567</v>
+        <v>25.894612361902</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.404057606563406</v>
+        <v>8.298508062956545</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.280021614873063</v>
+        <v>2.742578240086705</v>
       </c>
       <c r="E15">
-        <v>20.73628342317213</v>
+        <v>39.56002850940999</v>
       </c>
       <c r="F15">
-        <v>26.04055359382106</v>
+        <v>30.12084624331834</v>
       </c>
       <c r="G15">
-        <v>32.945349375663</v>
+        <v>44.21427042360877</v>
       </c>
       <c r="H15">
-        <v>14.22408026148387</v>
+        <v>11.60028231833138</v>
       </c>
       <c r="I15">
-        <v>18.80160909196525</v>
+        <v>10.91214548982291</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.68153596161366</v>
+        <v>25.75112788768582</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.321954457026194</v>
+        <v>8.068772793310538</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.286645926402411</v>
+        <v>2.785422969356423</v>
       </c>
       <c r="E16">
-        <v>20.07214540044766</v>
+        <v>38.05320489178047</v>
       </c>
       <c r="F16">
-        <v>25.87780858385299</v>
+        <v>29.18803065589167</v>
       </c>
       <c r="G16">
-        <v>32.60879358687357</v>
+        <v>42.64404605964934</v>
       </c>
       <c r="H16">
-        <v>14.22212100652048</v>
+        <v>11.37555092652139</v>
       </c>
       <c r="I16">
-        <v>18.87926435741556</v>
+        <v>11.17699316609737</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.26917373722734</v>
+        <v>24.91867758958938</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.271211419949322</v>
+        <v>7.924546197404468</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.290785827383699</v>
+        <v>2.811762123620748</v>
       </c>
       <c r="E17">
-        <v>19.65402407819721</v>
+        <v>37.11909906375085</v>
       </c>
       <c r="F17">
-        <v>25.78023029944798</v>
+        <v>28.61776543987273</v>
       </c>
       <c r="G17">
-        <v>32.40481431844704</v>
+        <v>41.71124557190841</v>
       </c>
       <c r="H17">
-        <v>14.22202969236724</v>
+        <v>11.24186221808638</v>
       </c>
       <c r="I17">
-        <v>18.92792935332456</v>
+        <v>11.34163895191058</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.0097376524422</v>
+        <v>24.39869870623967</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.241897360532192</v>
+        <v>7.840381855286741</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.293195060444285</v>
+        <v>2.826929866261476</v>
       </c>
       <c r="E18">
-        <v>19.40959026216542</v>
+        <v>36.57794551068157</v>
       </c>
       <c r="F18">
-        <v>25.72495309232769</v>
+        <v>28.29043923364287</v>
       </c>
       <c r="G18">
-        <v>32.28845104028186</v>
+        <v>41.17923980500744</v>
       </c>
       <c r="H18">
-        <v>14.22238438586011</v>
+        <v>11.16645921481171</v>
       </c>
       <c r="I18">
-        <v>18.95629759986746</v>
+        <v>11.43710881237177</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.8581448166723</v>
+        <v>24.09613049520605</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.231951103047054</v>
+        <v>7.811677710641686</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.294015616795392</v>
+        <v>2.832068392133679</v>
       </c>
       <c r="E19">
-        <v>19.32615113234434</v>
+        <v>36.39402605634829</v>
       </c>
       <c r="F19">
-        <v>25.70638422170957</v>
+        <v>28.17972420784533</v>
       </c>
       <c r="G19">
-        <v>32.24922171669128</v>
+        <v>40.99917632629214</v>
       </c>
       <c r="H19">
-        <v>14.22257432376046</v>
+        <v>11.14118124146251</v>
       </c>
       <c r="I19">
-        <v>18.96596746047731</v>
+        <v>11.4695632552887</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.80641111513247</v>
+        <v>23.99308014483739</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.27662657909217</v>
+        <v>7.940024515359843</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.290342225037677</v>
+        <v>2.808956361201408</v>
       </c>
       <c r="E20">
-        <v>19.698941477071</v>
+        <v>37.21893117457612</v>
       </c>
       <c r="F20">
-        <v>25.7905303541514</v>
+        <v>28.6784002380648</v>
       </c>
       <c r="G20">
-        <v>32.42642992302969</v>
+        <v>41.8097406375792</v>
       </c>
       <c r="H20">
-        <v>14.22199724577401</v>
+        <v>11.2559383288281</v>
       </c>
       <c r="I20">
-        <v>18.92270982778834</v>
+        <v>11.32403188206349</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.03760066410544</v>
+        <v>24.45441098242297</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.425131030025209</v>
+        <v>8.356803573800899</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.278334791453125</v>
+        <v>2.73153621541148</v>
       </c>
       <c r="E21">
-        <v>20.90445388998346</v>
+        <v>39.94632461685154</v>
       </c>
       <c r="F21">
-        <v>26.08325622419185</v>
+        <v>30.38118929936948</v>
       </c>
       <c r="G21">
-        <v>33.03297236627063</v>
+        <v>44.61960367776511</v>
       </c>
       <c r="H21">
-        <v>14.22493017350184</v>
+        <v>11.65963274710844</v>
       </c>
       <c r="I21">
-        <v>18.78187693072913</v>
+        <v>10.84446424254745</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.78599836195596</v>
+        <v>25.96323958637502</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.520840228364817</v>
+        <v>8.618424340452586</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.270735029210885</v>
+        <v>2.681165020131488</v>
       </c>
       <c r="E22">
-        <v>21.65746963708246</v>
+        <v>41.7012471844481</v>
       </c>
       <c r="F22">
-        <v>26.28175581193567</v>
+        <v>31.63138060983557</v>
       </c>
       <c r="G22">
-        <v>33.43694641464811</v>
+        <v>46.47370590661572</v>
       </c>
       <c r="H22">
-        <v>14.23049183776208</v>
+        <v>11.93773543712252</v>
       </c>
       <c r="I22">
-        <v>18.6931876509171</v>
+        <v>10.53857492888675</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.25392623088918</v>
+        <v>26.91992331718337</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.469891349962448</v>
+        <v>8.479777040545258</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.274768594680775</v>
+        <v>2.708023320956864</v>
       </c>
       <c r="E23">
-        <v>21.25874862903668</v>
+        <v>40.76676357641061</v>
       </c>
       <c r="F23">
-        <v>26.17517323063359</v>
+        <v>30.96463222807306</v>
       </c>
       <c r="G23">
-        <v>33.22069376705403</v>
+        <v>45.48392474025829</v>
       </c>
       <c r="H23">
-        <v>14.22718917362664</v>
+        <v>11.78794868208509</v>
       </c>
       <c r="I23">
-        <v>18.7402163383622</v>
+        <v>10.70110315322885</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.00612595888344</v>
+        <v>26.41192670595951</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.274178823148308</v>
+        <v>7.933030650411402</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.290542686800877</v>
+        <v>2.810224769017316</v>
       </c>
       <c r="E24">
-        <v>19.67864694001652</v>
+        <v>37.17380999387377</v>
       </c>
       <c r="F24">
-        <v>25.78587113547612</v>
+        <v>28.65098561762588</v>
       </c>
       <c r="G24">
-        <v>32.41665467159402</v>
+        <v>41.76521045688673</v>
       </c>
       <c r="H24">
-        <v>14.22201064668288</v>
+        <v>11.24956999304215</v>
       </c>
       <c r="I24">
-        <v>18.92506836006318</v>
+        <v>11.33198951314801</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.02501139446602</v>
+        <v>24.4292347719422</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.058316741456117</v>
+        <v>7.297097534144149</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.308632342604367</v>
+        <v>2.921183519090452</v>
       </c>
       <c r="E25">
-        <v>17.82341123475683</v>
+        <v>33.14709664588057</v>
       </c>
       <c r="F25">
-        <v>25.39851427554646</v>
+        <v>26.274540988908</v>
       </c>
       <c r="G25">
-        <v>31.58663725621944</v>
+        <v>37.8897273516</v>
       </c>
       <c r="H25">
-        <v>14.2319769844385</v>
+        <v>10.72544343189673</v>
       </c>
       <c r="I25">
-        <v>19.13889673055544</v>
+        <v>12.04184275086951</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.87612731785998</v>
+        <v>22.15651814644328</v>
       </c>
       <c r="L25">
         <v>0</v>
